--- a/Table_2.xlsx
+++ b/Table_2.xlsx
@@ -106,6 +106,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$D$7:$G$507">
+  <autoFilter ref="$D$7:$G$507"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="№ задачи"/>
+    <tableColumn id="2" name="№ вектора"/>
+    <tableColumn id="3" name="Целевой вес"/>
+    <tableColumn id="4" name="Доля предметов"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,16 +614,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="BC1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A464" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="9.28125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="10.23046875"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="11.98046875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="15.47265625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="12.00390625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="12.8515625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="14.28125"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="18.28125"/>
     <col bestFit="1" customWidth="1" min="10" max="14" width="9.140625"/>
     <col bestFit="1" customWidth="1" min="16" max="17" width="9.140625"/>
     <col bestFit="1" min="18" max="19" width="9.140625"/>
@@ -7699,61 +7712,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="E8:E17"/>
-    <mergeCell ref="E18:E27"/>
-    <mergeCell ref="E28:E37"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="E48:E57"/>
-    <mergeCell ref="E58:E67"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E108:E117"/>
-    <mergeCell ref="E118:E127"/>
-    <mergeCell ref="E128:E137"/>
-    <mergeCell ref="E138:E147"/>
-    <mergeCell ref="E148:E157"/>
-    <mergeCell ref="E158:E167"/>
-    <mergeCell ref="E168:E177"/>
-    <mergeCell ref="E178:E187"/>
-    <mergeCell ref="E188:E197"/>
-    <mergeCell ref="E198:E207"/>
-    <mergeCell ref="E208:E217"/>
-    <mergeCell ref="E218:E227"/>
-    <mergeCell ref="E228:E237"/>
-    <mergeCell ref="E238:E247"/>
-    <mergeCell ref="E248:E257"/>
-    <mergeCell ref="E258:E267"/>
-    <mergeCell ref="E268:E277"/>
-    <mergeCell ref="E278:E287"/>
-    <mergeCell ref="E288:E297"/>
-    <mergeCell ref="E298:E307"/>
-    <mergeCell ref="E308:E317"/>
-    <mergeCell ref="E318:E327"/>
-    <mergeCell ref="E328:E337"/>
-    <mergeCell ref="E338:E347"/>
-    <mergeCell ref="E348:E357"/>
-    <mergeCell ref="E358:E367"/>
-    <mergeCell ref="E368:E377"/>
-    <mergeCell ref="E378:E387"/>
-    <mergeCell ref="E388:E397"/>
-    <mergeCell ref="E398:E407"/>
-    <mergeCell ref="E408:E417"/>
-    <mergeCell ref="E418:E427"/>
-    <mergeCell ref="E428:E437"/>
-    <mergeCell ref="E438:E447"/>
-    <mergeCell ref="E448:E457"/>
-    <mergeCell ref="E458:E467"/>
-    <mergeCell ref="E468:E477"/>
-    <mergeCell ref="E478:E487"/>
-    <mergeCell ref="E488:E497"/>
-    <mergeCell ref="E498:E507"/>
-  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>